--- a/Code/Results/Cases/Case_0_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9901015739216024</v>
+        <v>1.037425168578215</v>
       </c>
       <c r="D2">
-        <v>0.9985924160005425</v>
+        <v>1.038039982128679</v>
       </c>
       <c r="E2">
-        <v>0.997474368075805</v>
+        <v>1.036169267099454</v>
       </c>
       <c r="F2">
-        <v>0.9979784916846799</v>
+        <v>1.044811884571918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03943999408204</v>
+        <v>1.034999749369511</v>
       </c>
       <c r="J2">
-        <v>1.012582430440915</v>
+        <v>1.042528110566738</v>
       </c>
       <c r="K2">
-        <v>1.010071395598833</v>
+        <v>1.040829149743927</v>
       </c>
       <c r="L2">
-        <v>1.008969001468459</v>
+        <v>1.038963777913633</v>
       </c>
       <c r="M2">
-        <v>1.00946606135769</v>
+        <v>1.047581883668407</v>
       </c>
       <c r="N2">
-        <v>1.014020413636969</v>
+        <v>1.044008620063444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9973879837919921</v>
+        <v>1.038866572148391</v>
       </c>
       <c r="D3">
-        <v>1.00483231443116</v>
+        <v>1.039318777423955</v>
       </c>
       <c r="E3">
-        <v>1.003512859982584</v>
+        <v>1.037410084754151</v>
       </c>
       <c r="F3">
-        <v>1.005497725132235</v>
+        <v>1.046360826011885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041407713967839</v>
+        <v>1.035298800602293</v>
       </c>
       <c r="J3">
-        <v>1.017950109163815</v>
+        <v>1.043611417103615</v>
       </c>
       <c r="K3">
-        <v>1.015403736036384</v>
+        <v>1.041916637253422</v>
       </c>
       <c r="L3">
-        <v>1.014100989569067</v>
+        <v>1.040012997134534</v>
       </c>
       <c r="M3">
-        <v>1.016060741533543</v>
+        <v>1.048940216838673</v>
       </c>
       <c r="N3">
-        <v>1.019395715079337</v>
+        <v>1.045093465019804</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001960370404433</v>
+        <v>1.039797804498898</v>
       </c>
       <c r="D4">
-        <v>1.008753586606802</v>
+        <v>1.040145137839241</v>
       </c>
       <c r="E4">
-        <v>1.007308631060587</v>
+        <v>1.038211961001082</v>
       </c>
       <c r="F4">
-        <v>1.010219994257636</v>
+        <v>1.047361802769458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042628754694242</v>
+        <v>1.035490247004678</v>
       </c>
       <c r="J4">
-        <v>1.021314062294728</v>
+        <v>1.044310544086983</v>
       </c>
       <c r="K4">
-        <v>1.018747499219924</v>
+        <v>1.042618664907793</v>
       </c>
       <c r="L4">
-        <v>1.017319640451307</v>
+        <v>1.040690344716441</v>
       </c>
       <c r="M4">
-        <v>1.020196618176801</v>
+        <v>1.049817370166303</v>
       </c>
       <c r="N4">
-        <v>1.022764445409546</v>
+        <v>1.04579358484368</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003850417887587</v>
+        <v>1.040188953862373</v>
       </c>
       <c r="D5">
-        <v>1.010375744626574</v>
+        <v>1.040492280396769</v>
       </c>
       <c r="E5">
-        <v>1.008879115612777</v>
+        <v>1.03854883163704</v>
       </c>
       <c r="F5">
-        <v>1.012172891738502</v>
+        <v>1.047782311666149</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043130126140954</v>
+        <v>1.035570239641436</v>
       </c>
       <c r="J5">
-        <v>1.022703472639171</v>
+        <v>1.04460402043635</v>
       </c>
       <c r="K5">
-        <v>1.020129035138643</v>
+        <v>1.042913407331592</v>
       </c>
       <c r="L5">
-        <v>1.01864960338183</v>
+        <v>1.040974731036776</v>
       </c>
       <c r="M5">
-        <v>1.02190561475806</v>
+        <v>1.050185706278103</v>
       </c>
       <c r="N5">
-        <v>1.024155828876046</v>
+        <v>1.046087477963126</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004165930410614</v>
+        <v>1.04025460978249</v>
       </c>
       <c r="D6">
-        <v>1.010646608858568</v>
+        <v>1.04055055210501</v>
       </c>
       <c r="E6">
-        <v>1.009141365549196</v>
+        <v>1.038605379880258</v>
       </c>
       <c r="F6">
-        <v>1.012498948290097</v>
+        <v>1.04785289948536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043213622593451</v>
+        <v>1.035583641987834</v>
       </c>
       <c r="J6">
-        <v>1.022935344427919</v>
+        <v>1.044653270947318</v>
       </c>
       <c r="K6">
-        <v>1.020359620002576</v>
+        <v>1.042962873153002</v>
       </c>
       <c r="L6">
-        <v>1.018871587325472</v>
+        <v>1.041022459153215</v>
       </c>
       <c r="M6">
-        <v>1.022190866788116</v>
+        <v>1.050247527148862</v>
       </c>
       <c r="N6">
-        <v>1.024388029949331</v>
+        <v>1.046136798415469</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001985749367587</v>
+        <v>1.039803032386051</v>
       </c>
       <c r="D7">
-        <v>1.008775363572318</v>
+        <v>1.040149777387605</v>
       </c>
       <c r="E7">
-        <v>1.007329713375323</v>
+        <v>1.038216463212509</v>
       </c>
       <c r="F7">
-        <v>1.010246213626619</v>
+        <v>1.047367422806171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042635500329338</v>
+        <v>1.035491317799131</v>
       </c>
       <c r="J7">
-        <v>1.021332723366827</v>
+        <v>1.044314467241821</v>
       </c>
       <c r="K7">
-        <v>1.018766052697394</v>
+        <v>1.042622604796897</v>
       </c>
       <c r="L7">
-        <v>1.017337500859024</v>
+        <v>1.040694146150865</v>
       </c>
       <c r="M7">
-        <v>1.020219568517409</v>
+        <v>1.049822293530065</v>
       </c>
       <c r="N7">
-        <v>1.022783132982509</v>
+        <v>1.045797513569849</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9925947389295215</v>
+        <v>1.037912602520934</v>
       </c>
       <c r="D8">
-        <v>1.00072626321231</v>
+        <v>1.038472389138461</v>
       </c>
       <c r="E8">
-        <v>0.9995391080348439</v>
+        <v>1.036588820591203</v>
       </c>
       <c r="F8">
-        <v>1.000550514797844</v>
+        <v>1.045335628647058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040116146253047</v>
+        <v>1.035101242629446</v>
       </c>
       <c r="J8">
-        <v>1.014419954767487</v>
+        <v>1.04289460408273</v>
       </c>
       <c r="K8">
-        <v>1.011896405780334</v>
+        <v>1.041197015726116</v>
       </c>
       <c r="L8">
-        <v>1.010725326016146</v>
+        <v>1.039318693805622</v>
       </c>
       <c r="M8">
-        <v>1.011723034170998</v>
+        <v>1.048041311171852</v>
       </c>
       <c r="N8">
-        <v>1.015860547458852</v>
+        <v>1.044375634042211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9748605709458611</v>
+        <v>1.034569990348785</v>
       </c>
       <c r="D9">
-        <v>0.9855762081652637</v>
+        <v>1.035507908658906</v>
       </c>
       <c r="E9">
-        <v>0.9848848660172513</v>
+        <v>1.033712700306588</v>
       </c>
       <c r="F9">
-        <v>0.9822723767408761</v>
+        <v>1.041745113345173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035249752277051</v>
+        <v>1.03439802950165</v>
       </c>
       <c r="J9">
-        <v>1.001333405194065</v>
+        <v>1.04037826935242</v>
       </c>
       <c r="K9">
-        <v>0.9989077180633998</v>
+        <v>1.03867209253788</v>
       </c>
       <c r="L9">
-        <v>0.9982280304022089</v>
+        <v>1.036882757648072</v>
       </c>
       <c r="M9">
-        <v>0.9956597731046811</v>
+        <v>1.04488906302147</v>
       </c>
       <c r="N9">
-        <v>1.002755413483987</v>
+        <v>1.041855725827956</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9620895876176576</v>
+        <v>1.032333457372417</v>
       </c>
       <c r="D10">
-        <v>0.974707495195586</v>
+        <v>1.033525395288165</v>
       </c>
       <c r="E10">
-        <v>0.9743791736357226</v>
+        <v>1.031789584597355</v>
       </c>
       <c r="F10">
-        <v>0.9691321502412015</v>
+        <v>1.039344078145551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031675577471516</v>
+        <v>1.033918456324619</v>
       </c>
       <c r="J10">
-        <v>0.991892467369592</v>
+        <v>1.038690743960822</v>
       </c>
       <c r="K10">
-        <v>0.9895489397191948</v>
+        <v>1.036979858695315</v>
       </c>
       <c r="L10">
-        <v>0.9892269588333704</v>
+        <v>1.035250294248527</v>
       </c>
       <c r="M10">
-        <v>0.9840820330627252</v>
+        <v>1.04277777111728</v>
       </c>
       <c r="N10">
-        <v>0.9933010684449131</v>
+        <v>1.040165803956741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9562948733468116</v>
+        <v>1.031362988717605</v>
       </c>
       <c r="D11">
-        <v>0.9697876225768111</v>
+        <v>1.032665400187495</v>
       </c>
       <c r="E11">
-        <v>0.9696256275198434</v>
+        <v>1.030955429960757</v>
       </c>
       <c r="F11">
-        <v>0.963175501286316</v>
+        <v>1.038302551236731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030038388376142</v>
+        <v>1.03370821836924</v>
       </c>
       <c r="J11">
-        <v>0.9876060582235371</v>
+        <v>1.037957590915937</v>
       </c>
       <c r="K11">
-        <v>0.9853027129858035</v>
+        <v>1.036244909840083</v>
       </c>
       <c r="L11">
-        <v>0.985144029862966</v>
+        <v>1.034541335875967</v>
       </c>
       <c r="M11">
-        <v>0.9788269705774112</v>
+        <v>1.041861139787614</v>
       </c>
       <c r="N11">
-        <v>0.9890085721062128</v>
+        <v>1.039431609750437</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9540987165278632</v>
+        <v>1.031002199160671</v>
       </c>
       <c r="D12">
-        <v>0.9679249650377203</v>
+        <v>1.032345719646597</v>
       </c>
       <c r="E12">
-        <v>0.9678262668152661</v>
+        <v>1.030645366242753</v>
       </c>
       <c r="F12">
-        <v>0.9609188387720587</v>
+        <v>1.037915392610999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029415691850626</v>
+        <v>1.03362973691553</v>
       </c>
       <c r="J12">
-        <v>0.9859812661700269</v>
+        <v>1.037684891888914</v>
       </c>
       <c r="K12">
-        <v>0.9836935983883681</v>
+        <v>1.0359715804265</v>
       </c>
       <c r="L12">
-        <v>0.9835969606714056</v>
+        <v>1.03427767723711</v>
       </c>
       <c r="M12">
-        <v>0.976835130724283</v>
+        <v>1.041520288973432</v>
       </c>
       <c r="N12">
-        <v>0.98738147266162</v>
+        <v>1.039158523459517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9545718486520079</v>
+        <v>1.031079604105317</v>
       </c>
       <c r="D13">
-        <v>0.9683261585808643</v>
+        <v>1.032414303178621</v>
       </c>
       <c r="E13">
-        <v>0.9682138118554329</v>
+        <v>1.030711886089527</v>
       </c>
       <c r="F13">
-        <v>0.9614049665235956</v>
+        <v>1.037998452685385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029549941385971</v>
+        <v>1.033646589124132</v>
       </c>
       <c r="J13">
-        <v>0.9863313155943642</v>
+        <v>1.037743403751297</v>
       </c>
       <c r="K13">
-        <v>0.9840402498607831</v>
+        <v>1.036030225847659</v>
       </c>
       <c r="L13">
-        <v>0.9839302381024594</v>
+        <v>1.034334247481298</v>
       </c>
       <c r="M13">
-        <v>0.9772642538819226</v>
+        <v>1.04159341964952</v>
       </c>
       <c r="N13">
-        <v>0.9877320191962912</v>
+        <v>1.039217118415456</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9561142555222935</v>
+        <v>1.031333172201275</v>
       </c>
       <c r="D14">
-        <v>0.9696343921786806</v>
+        <v>1.032638980230198</v>
       </c>
       <c r="E14">
-        <v>0.9694775974349755</v>
+        <v>1.030929804553052</v>
       </c>
       <c r="F14">
-        <v>0.9629898896043806</v>
+        <v>1.03827055453668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029987220351263</v>
+        <v>1.033701739030451</v>
       </c>
       <c r="J14">
-        <v>0.9874724356990853</v>
+        <v>1.03793505718169</v>
       </c>
       <c r="K14">
-        <v>0.9851703706480496</v>
+        <v>1.036222323249202</v>
       </c>
       <c r="L14">
-        <v>0.9850167870827613</v>
+        <v>1.03451954833084</v>
       </c>
       <c r="M14">
-        <v>0.9786631601704361</v>
+        <v>1.041832972613137</v>
       </c>
       <c r="N14">
-        <v>0.9888747598224493</v>
+        <v>1.039409044015703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9570586592915632</v>
+        <v>1.03148936197128</v>
       </c>
       <c r="D15">
-        <v>0.9704356741446853</v>
+        <v>1.032777379165906</v>
       </c>
       <c r="E15">
-        <v>0.9702516989967299</v>
+        <v>1.031064041765092</v>
       </c>
       <c r="F15">
-        <v>0.9639604403006903</v>
+        <v>1.038438166872401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030254675451336</v>
+        <v>1.033735667001777</v>
       </c>
       <c r="J15">
-        <v>0.9881711029654096</v>
+        <v>1.038053091526242</v>
       </c>
       <c r="K15">
-        <v>0.9858623624492021</v>
+        <v>1.036340636001066</v>
       </c>
       <c r="L15">
-        <v>0.9856821210317884</v>
+        <v>1.034633675731641</v>
       </c>
       <c r="M15">
-        <v>0.9795196742546146</v>
+        <v>1.041980519406759</v>
       </c>
       <c r="N15">
-        <v>0.9895744192764302</v>
+        <v>1.039527245982563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9624682590389811</v>
+        <v>1.03239782057628</v>
       </c>
       <c r="D16">
-        <v>0.975029254419528</v>
+        <v>1.033582437029965</v>
       </c>
       <c r="E16">
-        <v>0.9746900985673957</v>
+        <v>1.031844913970439</v>
       </c>
       <c r="F16">
-        <v>0.9695215215975195</v>
+        <v>1.039413160817484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031782253592255</v>
+        <v>1.033932354592111</v>
       </c>
       <c r="J16">
-        <v>0.9921725297278413</v>
+        <v>1.03873934890185</v>
       </c>
       <c r="K16">
-        <v>0.9898264372688467</v>
+        <v>1.03702858795065</v>
       </c>
       <c r="L16">
-        <v>0.9894938063691942</v>
+        <v>1.035297300933701</v>
       </c>
       <c r="M16">
-        <v>0.9844254076380252</v>
+        <v>1.042838553053729</v>
       </c>
       <c r="N16">
-        <v>0.993581528523835</v>
+        <v>1.040214477922359</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9657880350071369</v>
+        <v>1.032967121794028</v>
       </c>
       <c r="D17">
-        <v>0.9778514249817419</v>
+        <v>1.034087007911223</v>
       </c>
       <c r="E17">
-        <v>0.9774174692522016</v>
+        <v>1.032334346446341</v>
       </c>
       <c r="F17">
-        <v>0.972935737241362</v>
+        <v>1.04002424349354</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032715744906565</v>
+        <v>1.034055039368979</v>
       </c>
       <c r="J17">
-        <v>0.994627522424305</v>
+        <v>1.039169161457003</v>
       </c>
       <c r="K17">
-        <v>0.9922592729823729</v>
+        <v>1.037459528627136</v>
       </c>
       <c r="L17">
-        <v>0.9918333869992522</v>
+        <v>1.035713011610117</v>
       </c>
       <c r="M17">
-        <v>0.9874355463901663</v>
+        <v>1.043376118974868</v>
       </c>
       <c r="N17">
-        <v>0.9960400075915189</v>
+        <v>1.040644900860641</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9676991497647713</v>
+        <v>1.033298989783721</v>
       </c>
       <c r="D18">
-        <v>0.9794771654438272</v>
+        <v>1.034381166109306</v>
       </c>
       <c r="E18">
-        <v>0.9789887853793789</v>
+        <v>1.03261968630772</v>
       </c>
       <c r="F18">
-        <v>0.9749017428355055</v>
+        <v>1.040380498576159</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033251677515793</v>
+        <v>1.03412635057645</v>
       </c>
       <c r="J18">
-        <v>0.996040542694521</v>
+        <v>1.039419628519783</v>
       </c>
       <c r="K18">
-        <v>0.9936598094735345</v>
+        <v>1.037710677137703</v>
       </c>
       <c r="L18">
-        <v>0.9931803312737726</v>
+        <v>1.035955287262571</v>
       </c>
       <c r="M18">
-        <v>0.9891682402451207</v>
+        <v>1.043689438382383</v>
       </c>
       <c r="N18">
-        <v>0.9974550345125943</v>
+        <v>1.040895723615379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9683466185312134</v>
+        <v>1.03341211524143</v>
       </c>
       <c r="D19">
-        <v>0.9800281309618647</v>
+        <v>1.034481441301784</v>
       </c>
       <c r="E19">
-        <v>0.9795213372904005</v>
+        <v>1.03271695663852</v>
       </c>
       <c r="F19">
-        <v>0.9755678963664628</v>
+        <v>1.040501942253472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033432996819391</v>
+        <v>1.034150623728403</v>
       </c>
       <c r="J19">
-        <v>0.9965192138383094</v>
+        <v>1.039504991587637</v>
       </c>
       <c r="K19">
-        <v>0.994134296929826</v>
+        <v>1.037796276531812</v>
       </c>
       <c r="L19">
-        <v>0.9936366776357434</v>
+        <v>1.036037863020545</v>
       </c>
       <c r="M19">
-        <v>0.9897552310772073</v>
+        <v>1.043796232815186</v>
       </c>
       <c r="N19">
-        <v>0.9979343854243111</v>
+        <v>1.040981207908581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9654344935386735</v>
+        <v>1.03290606147336</v>
       </c>
       <c r="D20">
-        <v>0.9775507622681009</v>
+        <v>1.034032887738404</v>
       </c>
       <c r="E20">
-        <v>0.9771268866243241</v>
+        <v>1.032281849274647</v>
       </c>
       <c r="F20">
-        <v>0.972572083705276</v>
+        <v>1.039958698698474</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032616482826295</v>
+        <v>1.034041902198258</v>
       </c>
       <c r="J20">
-        <v>0.9943661026829864</v>
+        <v>1.039123071023996</v>
       </c>
       <c r="K20">
-        <v>0.9920001845587532</v>
+        <v>1.037413314732428</v>
       </c>
       <c r="L20">
-        <v>0.991584220164325</v>
+        <v>1.035668430657549</v>
       </c>
       <c r="M20">
-        <v>0.9871149972201736</v>
+        <v>1.043318467472106</v>
       </c>
       <c r="N20">
-        <v>0.9957782166041822</v>
+        <v>1.040598744973933</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9556612971992751</v>
+        <v>1.031258511461805</v>
       </c>
       <c r="D21">
-        <v>0.9692501486377842</v>
+        <v>1.032572825119114</v>
       </c>
       <c r="E21">
-        <v>0.9691063996314507</v>
+        <v>1.03086563916342</v>
       </c>
       <c r="F21">
-        <v>0.9625244215614662</v>
+        <v>1.03819043538057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029858864585841</v>
+        <v>1.033685509533135</v>
       </c>
       <c r="J21">
-        <v>0.9871373295600313</v>
+        <v>1.037878630379784</v>
       </c>
       <c r="K21">
-        <v>0.9848384822519258</v>
+        <v>1.036165764695706</v>
       </c>
       <c r="L21">
-        <v>0.9846976900427516</v>
+        <v>1.034464990727619</v>
       </c>
       <c r="M21">
-        <v>0.9782523488271943</v>
+        <v>1.041762440603487</v>
       </c>
       <c r="N21">
-        <v>0.9885391777942407</v>
+        <v>1.039352537081266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9492610381658921</v>
+        <v>1.03022080872731</v>
       </c>
       <c r="D22">
-        <v>0.9638257194089809</v>
+        <v>1.031653433505894</v>
       </c>
       <c r="E22">
-        <v>0.9638669537551807</v>
+        <v>1.029973926717891</v>
       </c>
       <c r="F22">
-        <v>0.9559495067033597</v>
+        <v>1.037076980418695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028040062935515</v>
+        <v>1.033459175457147</v>
       </c>
       <c r="J22">
-        <v>0.982401839377586</v>
+        <v>1.03709403797858</v>
       </c>
       <c r="K22">
-        <v>0.9801495490656924</v>
+        <v>1.03537942946051</v>
       </c>
       <c r="L22">
-        <v>0.9801898830719787</v>
+        <v>1.033706486342302</v>
       </c>
       <c r="M22">
-        <v>0.9724472084610603</v>
+        <v>1.040781941783138</v>
       </c>
       <c r="N22">
-        <v>0.9837969626725683</v>
+        <v>1.038566830468859</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9526796237811785</v>
+        <v>1.030771090212987</v>
       </c>
       <c r="D23">
-        <v>0.9667219415282039</v>
+        <v>1.032140954599057</v>
       </c>
       <c r="E23">
-        <v>0.9666642197448173</v>
+        <v>1.030446764262891</v>
       </c>
       <c r="F23">
-        <v>0.9594608964551535</v>
+        <v>1.037667406100838</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029012713788636</v>
+        <v>1.033579373988866</v>
       </c>
       <c r="J23">
-        <v>0.9849313133628566</v>
+        <v>1.037510172398047</v>
       </c>
       <c r="K23">
-        <v>0.9826539040614535</v>
+        <v>1.035796467627348</v>
       </c>
       <c r="L23">
-        <v>0.9825974034959482</v>
+        <v>1.034108761545693</v>
       </c>
       <c r="M23">
-        <v>0.9755480111263091</v>
+        <v>1.041301930586564</v>
       </c>
       <c r="N23">
-        <v>0.9863300288010324</v>
+        <v>1.038983555846933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9655943214608086</v>
+        <v>1.032933652609144</v>
       </c>
       <c r="D24">
-        <v>0.977686681569503</v>
+        <v>1.034057342777025</v>
       </c>
       <c r="E24">
-        <v>0.9772582484883524</v>
+        <v>1.032305570912959</v>
       </c>
       <c r="F24">
-        <v>0.9727364814322721</v>
+        <v>1.039988316123679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032661361448755</v>
+        <v>1.034047839088935</v>
       </c>
       <c r="J24">
-        <v>0.9944842853189381</v>
+        <v>1.039143898034111</v>
       </c>
       <c r="K24">
-        <v>0.9921173124172646</v>
+        <v>1.037434197457168</v>
       </c>
       <c r="L24">
-        <v>0.9916968624152211</v>
+        <v>1.035688575493444</v>
       </c>
       <c r="M24">
-        <v>0.9872599106204553</v>
+        <v>1.043344518426963</v>
       </c>
       <c r="N24">
-        <v>0.9958965670730325</v>
+        <v>1.040619601560791</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9796002640779006</v>
+        <v>1.035435535491759</v>
       </c>
       <c r="D25">
-        <v>0.9896187924763833</v>
+        <v>1.036275364529681</v>
       </c>
       <c r="E25">
-        <v>0.9887939806411981</v>
+        <v>1.034457227819428</v>
       </c>
       <c r="F25">
-        <v>0.9871537140549314</v>
+        <v>1.04267460937057</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036562536579824</v>
+        <v>1.03458171633203</v>
       </c>
       <c r="J25">
-        <v>1.004834219067759</v>
+        <v>1.041030535831557</v>
       </c>
       <c r="K25">
-        <v>1.002380429755032</v>
+        <v>1.039326400626716</v>
       </c>
       <c r="L25">
-        <v>1.001568782703523</v>
+        <v>1.037513983042459</v>
       </c>
       <c r="M25">
-        <v>0.9999547801851163</v>
+        <v>1.045705689293819</v>
       </c>
       <c r="N25">
-        <v>1.006261198914932</v>
+        <v>1.042508918600309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037425168578215</v>
+        <v>0.9901015739216014</v>
       </c>
       <c r="D2">
-        <v>1.038039982128679</v>
+        <v>0.9985924160005416</v>
       </c>
       <c r="E2">
-        <v>1.036169267099454</v>
+        <v>0.9974743680758043</v>
       </c>
       <c r="F2">
-        <v>1.044811884571918</v>
+        <v>0.9979784916846793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034999749369511</v>
+        <v>1.03943999408204</v>
       </c>
       <c r="J2">
-        <v>1.042528110566738</v>
+        <v>1.012582430440914</v>
       </c>
       <c r="K2">
-        <v>1.040829149743927</v>
+        <v>1.010071395598832</v>
       </c>
       <c r="L2">
-        <v>1.038963777913633</v>
+        <v>1.008969001468458</v>
       </c>
       <c r="M2">
-        <v>1.047581883668407</v>
+        <v>1.00946606135769</v>
       </c>
       <c r="N2">
-        <v>1.044008620063444</v>
+        <v>1.014020413636968</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038866572148391</v>
+        <v>0.9973879837919917</v>
       </c>
       <c r="D3">
-        <v>1.039318777423955</v>
+        <v>1.004832314431159</v>
       </c>
       <c r="E3">
-        <v>1.037410084754151</v>
+        <v>1.003512859982584</v>
       </c>
       <c r="F3">
-        <v>1.046360826011885</v>
+        <v>1.005497725132235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035298800602293</v>
+        <v>1.041407713967839</v>
       </c>
       <c r="J3">
-        <v>1.043611417103615</v>
+        <v>1.017950109163815</v>
       </c>
       <c r="K3">
-        <v>1.041916637253422</v>
+        <v>1.015403736036384</v>
       </c>
       <c r="L3">
-        <v>1.040012997134534</v>
+        <v>1.014100989569067</v>
       </c>
       <c r="M3">
-        <v>1.048940216838673</v>
+        <v>1.016060741533543</v>
       </c>
       <c r="N3">
-        <v>1.045093465019804</v>
+        <v>1.019395715079337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039797804498898</v>
+        <v>1.001960370404435</v>
       </c>
       <c r="D4">
-        <v>1.040145137839241</v>
+        <v>1.008753586606804</v>
       </c>
       <c r="E4">
-        <v>1.038211961001082</v>
+        <v>1.007308631060589</v>
       </c>
       <c r="F4">
-        <v>1.047361802769458</v>
+        <v>1.010219994257638</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035490247004678</v>
+        <v>1.042628754694243</v>
       </c>
       <c r="J4">
-        <v>1.044310544086983</v>
+        <v>1.02131406229473</v>
       </c>
       <c r="K4">
-        <v>1.042618664907793</v>
+        <v>1.018747499219927</v>
       </c>
       <c r="L4">
-        <v>1.040690344716441</v>
+        <v>1.017319640451309</v>
       </c>
       <c r="M4">
-        <v>1.049817370166303</v>
+        <v>1.020196618176804</v>
       </c>
       <c r="N4">
-        <v>1.04579358484368</v>
+        <v>1.022764445409549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040188953862373</v>
+        <v>1.003850417887586</v>
       </c>
       <c r="D5">
-        <v>1.040492280396769</v>
+        <v>1.010375744626574</v>
       </c>
       <c r="E5">
-        <v>1.03854883163704</v>
+        <v>1.008879115612776</v>
       </c>
       <c r="F5">
-        <v>1.047782311666149</v>
+        <v>1.012172891738502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035570239641436</v>
+        <v>1.043130126140954</v>
       </c>
       <c r="J5">
-        <v>1.04460402043635</v>
+        <v>1.02270347263917</v>
       </c>
       <c r="K5">
-        <v>1.042913407331592</v>
+        <v>1.020129035138643</v>
       </c>
       <c r="L5">
-        <v>1.040974731036776</v>
+        <v>1.018649603381829</v>
       </c>
       <c r="M5">
-        <v>1.050185706278103</v>
+        <v>1.02190561475806</v>
       </c>
       <c r="N5">
-        <v>1.046087477963126</v>
+        <v>1.024155828876046</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04025460978249</v>
+        <v>1.004165930410615</v>
       </c>
       <c r="D6">
-        <v>1.04055055210501</v>
+        <v>1.010646608858569</v>
       </c>
       <c r="E6">
-        <v>1.038605379880258</v>
+        <v>1.009141365549197</v>
       </c>
       <c r="F6">
-        <v>1.04785289948536</v>
+        <v>1.012498948290097</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035583641987834</v>
+        <v>1.043213622593451</v>
       </c>
       <c r="J6">
-        <v>1.044653270947318</v>
+        <v>1.02293534442792</v>
       </c>
       <c r="K6">
-        <v>1.042962873153002</v>
+        <v>1.020359620002576</v>
       </c>
       <c r="L6">
-        <v>1.041022459153215</v>
+        <v>1.018871587325472</v>
       </c>
       <c r="M6">
-        <v>1.050247527148862</v>
+        <v>1.022190866788116</v>
       </c>
       <c r="N6">
-        <v>1.046136798415469</v>
+        <v>1.024388029949331</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039803032386051</v>
+        <v>1.001985749367585</v>
       </c>
       <c r="D7">
-        <v>1.040149777387605</v>
+        <v>1.008775363572316</v>
       </c>
       <c r="E7">
-        <v>1.038216463212509</v>
+        <v>1.007329713375321</v>
       </c>
       <c r="F7">
-        <v>1.047367422806171</v>
+        <v>1.010246213626617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035491317799131</v>
+        <v>1.042635500329337</v>
       </c>
       <c r="J7">
-        <v>1.044314467241821</v>
+        <v>1.021332723366825</v>
       </c>
       <c r="K7">
-        <v>1.042622604796897</v>
+        <v>1.018766052697392</v>
       </c>
       <c r="L7">
-        <v>1.040694146150865</v>
+        <v>1.017337500859022</v>
       </c>
       <c r="M7">
-        <v>1.049822293530065</v>
+        <v>1.020219568517408</v>
       </c>
       <c r="N7">
-        <v>1.045797513569849</v>
+        <v>1.022783132982507</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037912602520934</v>
+        <v>0.9925947389295228</v>
       </c>
       <c r="D8">
-        <v>1.038472389138461</v>
+        <v>1.000726263212311</v>
       </c>
       <c r="E8">
-        <v>1.036588820591203</v>
+        <v>0.9995391080348446</v>
       </c>
       <c r="F8">
-        <v>1.045335628647058</v>
+        <v>1.000550514797845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035101242629446</v>
+        <v>1.040116146253047</v>
       </c>
       <c r="J8">
-        <v>1.04289460408273</v>
+        <v>1.014419954767488</v>
       </c>
       <c r="K8">
-        <v>1.041197015726116</v>
+        <v>1.011896405780335</v>
       </c>
       <c r="L8">
-        <v>1.039318693805622</v>
+        <v>1.010725326016147</v>
       </c>
       <c r="M8">
-        <v>1.048041311171852</v>
+        <v>1.011723034170999</v>
       </c>
       <c r="N8">
-        <v>1.044375634042211</v>
+        <v>1.015860547458853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034569990348785</v>
+        <v>0.9748605709458604</v>
       </c>
       <c r="D9">
-        <v>1.035507908658906</v>
+        <v>0.9855762081652627</v>
       </c>
       <c r="E9">
-        <v>1.033712700306588</v>
+        <v>0.9848848660172502</v>
       </c>
       <c r="F9">
-        <v>1.041745113345173</v>
+        <v>0.9822723767408755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03439802950165</v>
+        <v>1.035249752277051</v>
       </c>
       <c r="J9">
-        <v>1.04037826935242</v>
+        <v>1.001333405194064</v>
       </c>
       <c r="K9">
-        <v>1.03867209253788</v>
+        <v>0.998907718063399</v>
       </c>
       <c r="L9">
-        <v>1.036882757648072</v>
+        <v>0.9982280304022078</v>
       </c>
       <c r="M9">
-        <v>1.04488906302147</v>
+        <v>0.9956597731046805</v>
       </c>
       <c r="N9">
-        <v>1.041855725827956</v>
+        <v>1.002755413483986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032333457372417</v>
+        <v>0.9620895876176571</v>
       </c>
       <c r="D10">
-        <v>1.033525395288165</v>
+        <v>0.9747074951955852</v>
       </c>
       <c r="E10">
-        <v>1.031789584597355</v>
+        <v>0.9743791736357216</v>
       </c>
       <c r="F10">
-        <v>1.039344078145551</v>
+        <v>0.9691321502412009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033918456324619</v>
+        <v>1.031675577471516</v>
       </c>
       <c r="J10">
-        <v>1.038690743960822</v>
+        <v>0.9918924673695915</v>
       </c>
       <c r="K10">
-        <v>1.036979858695315</v>
+        <v>0.9895489397191941</v>
       </c>
       <c r="L10">
-        <v>1.035250294248527</v>
+        <v>0.9892269588333696</v>
       </c>
       <c r="M10">
-        <v>1.04277777111728</v>
+        <v>0.9840820330627248</v>
       </c>
       <c r="N10">
-        <v>1.040165803956741</v>
+        <v>0.9933010684449124</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031362988717605</v>
+        <v>0.9562948733468121</v>
       </c>
       <c r="D11">
-        <v>1.032665400187495</v>
+        <v>0.9697876225768114</v>
       </c>
       <c r="E11">
-        <v>1.030955429960757</v>
+        <v>0.9696256275198434</v>
       </c>
       <c r="F11">
-        <v>1.038302551236731</v>
+        <v>0.9631755012863166</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03370821836924</v>
+        <v>1.030038388376143</v>
       </c>
       <c r="J11">
-        <v>1.037957590915937</v>
+        <v>0.9876060582235374</v>
       </c>
       <c r="K11">
-        <v>1.036244909840083</v>
+        <v>0.9853027129858039</v>
       </c>
       <c r="L11">
-        <v>1.034541335875967</v>
+        <v>0.9851440298629659</v>
       </c>
       <c r="M11">
-        <v>1.041861139787614</v>
+        <v>0.9788269705774116</v>
       </c>
       <c r="N11">
-        <v>1.039431609750437</v>
+        <v>0.9890085721062131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031002199160671</v>
+        <v>0.954098716527864</v>
       </c>
       <c r="D12">
-        <v>1.032345719646597</v>
+        <v>0.9679249650377214</v>
       </c>
       <c r="E12">
-        <v>1.030645366242753</v>
+        <v>0.9678262668152673</v>
       </c>
       <c r="F12">
-        <v>1.037915392610999</v>
+        <v>0.9609188387720604</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03362973691553</v>
+        <v>1.029415691850626</v>
       </c>
       <c r="J12">
-        <v>1.037684891888914</v>
+        <v>0.985981266170028</v>
       </c>
       <c r="K12">
-        <v>1.0359715804265</v>
+        <v>0.9836935983883691</v>
       </c>
       <c r="L12">
-        <v>1.03427767723711</v>
+        <v>0.9835969606714068</v>
       </c>
       <c r="M12">
-        <v>1.041520288973432</v>
+        <v>0.9768351307242845</v>
       </c>
       <c r="N12">
-        <v>1.039158523459517</v>
+        <v>0.9873814726616214</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031079604105317</v>
+        <v>0.9545718486520067</v>
       </c>
       <c r="D13">
-        <v>1.032414303178621</v>
+        <v>0.9683261585808631</v>
       </c>
       <c r="E13">
-        <v>1.030711886089527</v>
+        <v>0.9682138118554318</v>
       </c>
       <c r="F13">
-        <v>1.037998452685385</v>
+        <v>0.9614049665235948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033646589124132</v>
+        <v>1.029549941385971</v>
       </c>
       <c r="J13">
-        <v>1.037743403751297</v>
+        <v>0.9863313155943628</v>
       </c>
       <c r="K13">
-        <v>1.036030225847659</v>
+        <v>0.9840402498607818</v>
       </c>
       <c r="L13">
-        <v>1.034334247481298</v>
+        <v>0.9839302381024583</v>
       </c>
       <c r="M13">
-        <v>1.04159341964952</v>
+        <v>0.9772642538819215</v>
       </c>
       <c r="N13">
-        <v>1.039217118415456</v>
+        <v>0.9877320191962899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031333172201275</v>
+        <v>0.9561142555222926</v>
       </c>
       <c r="D14">
-        <v>1.032638980230198</v>
+        <v>0.9696343921786799</v>
       </c>
       <c r="E14">
-        <v>1.030929804553052</v>
+        <v>0.9694775974349749</v>
       </c>
       <c r="F14">
-        <v>1.03827055453668</v>
+        <v>0.9629898896043795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033701739030451</v>
+        <v>1.029987220351263</v>
       </c>
       <c r="J14">
-        <v>1.03793505718169</v>
+        <v>0.9874724356990843</v>
       </c>
       <c r="K14">
-        <v>1.036222323249202</v>
+        <v>0.9851703706480485</v>
       </c>
       <c r="L14">
-        <v>1.03451954833084</v>
+        <v>0.9850167870827605</v>
       </c>
       <c r="M14">
-        <v>1.041832972613137</v>
+        <v>0.9786631601704352</v>
       </c>
       <c r="N14">
-        <v>1.039409044015703</v>
+        <v>0.9888747598224483</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03148936197128</v>
+        <v>0.9570586592915628</v>
       </c>
       <c r="D15">
-        <v>1.032777379165906</v>
+        <v>0.9704356741446847</v>
       </c>
       <c r="E15">
-        <v>1.031064041765092</v>
+        <v>0.9702516989967294</v>
       </c>
       <c r="F15">
-        <v>1.038438166872401</v>
+        <v>0.9639604403006895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033735667001777</v>
+        <v>1.030254675451336</v>
       </c>
       <c r="J15">
-        <v>1.038053091526242</v>
+        <v>0.988171102965409</v>
       </c>
       <c r="K15">
-        <v>1.036340636001066</v>
+        <v>0.9858623624492016</v>
       </c>
       <c r="L15">
-        <v>1.034633675731641</v>
+        <v>0.9856821210317881</v>
       </c>
       <c r="M15">
-        <v>1.041980519406759</v>
+        <v>0.9795196742546141</v>
       </c>
       <c r="N15">
-        <v>1.039527245982563</v>
+        <v>0.9895744192764295</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03239782057628</v>
+        <v>0.9624682590389809</v>
       </c>
       <c r="D16">
-        <v>1.033582437029965</v>
+        <v>0.9750292544195279</v>
       </c>
       <c r="E16">
-        <v>1.031844913970439</v>
+        <v>0.9746900985673956</v>
       </c>
       <c r="F16">
-        <v>1.039413160817484</v>
+        <v>0.9695215215975195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033932354592111</v>
+        <v>1.031782253592255</v>
       </c>
       <c r="J16">
-        <v>1.03873934890185</v>
+        <v>0.9921725297278414</v>
       </c>
       <c r="K16">
-        <v>1.03702858795065</v>
+        <v>0.9898264372688463</v>
       </c>
       <c r="L16">
-        <v>1.035297300933701</v>
+        <v>0.989493806369194</v>
       </c>
       <c r="M16">
-        <v>1.042838553053729</v>
+        <v>0.9844254076380251</v>
       </c>
       <c r="N16">
-        <v>1.040214477922359</v>
+        <v>0.9935815285238346</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032967121794028</v>
+        <v>0.9657880350071357</v>
       </c>
       <c r="D17">
-        <v>1.034087007911223</v>
+        <v>0.9778514249817412</v>
       </c>
       <c r="E17">
-        <v>1.032334346446341</v>
+        <v>0.9774174692522005</v>
       </c>
       <c r="F17">
-        <v>1.04002424349354</v>
+        <v>0.9729357372413608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034055039368979</v>
+        <v>1.032715744906565</v>
       </c>
       <c r="J17">
-        <v>1.039169161457003</v>
+        <v>0.9946275224243037</v>
       </c>
       <c r="K17">
-        <v>1.037459528627136</v>
+        <v>0.9922592729823719</v>
       </c>
       <c r="L17">
-        <v>1.035713011610117</v>
+        <v>0.9918333869992512</v>
       </c>
       <c r="M17">
-        <v>1.043376118974868</v>
+        <v>0.9874355463901656</v>
       </c>
       <c r="N17">
-        <v>1.040644900860641</v>
+        <v>0.9960400075915177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033298989783721</v>
+        <v>0.9676991497647703</v>
       </c>
       <c r="D18">
-        <v>1.034381166109306</v>
+        <v>0.9794771654438262</v>
       </c>
       <c r="E18">
-        <v>1.03261968630772</v>
+        <v>0.9789887853793783</v>
       </c>
       <c r="F18">
-        <v>1.040380498576159</v>
+        <v>0.9749017428355043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03412635057645</v>
+        <v>1.033251677515793</v>
       </c>
       <c r="J18">
-        <v>1.039419628519783</v>
+        <v>0.9960405426945201</v>
       </c>
       <c r="K18">
-        <v>1.037710677137703</v>
+        <v>0.9936598094735337</v>
       </c>
       <c r="L18">
-        <v>1.035955287262571</v>
+        <v>0.9931803312737716</v>
       </c>
       <c r="M18">
-        <v>1.043689438382383</v>
+        <v>0.9891682402451197</v>
       </c>
       <c r="N18">
-        <v>1.040895723615379</v>
+        <v>0.9974550345125933</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03341211524143</v>
+        <v>0.9683466185312133</v>
       </c>
       <c r="D19">
-        <v>1.034481441301784</v>
+        <v>0.9800281309618647</v>
       </c>
       <c r="E19">
-        <v>1.03271695663852</v>
+        <v>0.9795213372904006</v>
       </c>
       <c r="F19">
-        <v>1.040501942253472</v>
+        <v>0.9755678963664626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034150623728403</v>
+        <v>1.033432996819391</v>
       </c>
       <c r="J19">
-        <v>1.039504991587637</v>
+        <v>0.9965192138383095</v>
       </c>
       <c r="K19">
-        <v>1.037796276531812</v>
+        <v>0.9941342969298261</v>
       </c>
       <c r="L19">
-        <v>1.036037863020545</v>
+        <v>0.9936366776357434</v>
       </c>
       <c r="M19">
-        <v>1.043796232815186</v>
+        <v>0.9897552310772072</v>
       </c>
       <c r="N19">
-        <v>1.040981207908581</v>
+        <v>0.9979343854243115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03290606147336</v>
+        <v>0.9654344935386732</v>
       </c>
       <c r="D20">
-        <v>1.034032887738404</v>
+        <v>0.9775507622681002</v>
       </c>
       <c r="E20">
-        <v>1.032281849274647</v>
+        <v>0.9771268866243236</v>
       </c>
       <c r="F20">
-        <v>1.039958698698474</v>
+        <v>0.9725720837052756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034041902198258</v>
+        <v>1.032616482826295</v>
       </c>
       <c r="J20">
-        <v>1.039123071023996</v>
+        <v>0.994366102682986</v>
       </c>
       <c r="K20">
-        <v>1.037413314732428</v>
+        <v>0.9920001845587525</v>
       </c>
       <c r="L20">
-        <v>1.035668430657549</v>
+        <v>0.9915842201643245</v>
       </c>
       <c r="M20">
-        <v>1.043318467472106</v>
+        <v>0.9871149972201733</v>
       </c>
       <c r="N20">
-        <v>1.040598744973933</v>
+        <v>0.995778216604182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031258511461805</v>
+        <v>0.9556612971992756</v>
       </c>
       <c r="D21">
-        <v>1.032572825119114</v>
+        <v>0.9692501486377845</v>
       </c>
       <c r="E21">
-        <v>1.03086563916342</v>
+        <v>0.9691063996314511</v>
       </c>
       <c r="F21">
-        <v>1.03819043538057</v>
+        <v>0.9625244215614666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033685509533135</v>
+        <v>1.029858864585841</v>
       </c>
       <c r="J21">
-        <v>1.037878630379784</v>
+        <v>0.9871373295600315</v>
       </c>
       <c r="K21">
-        <v>1.036165764695706</v>
+        <v>0.9848384822519259</v>
       </c>
       <c r="L21">
-        <v>1.034464990727619</v>
+        <v>0.984697690042752</v>
       </c>
       <c r="M21">
-        <v>1.041762440603487</v>
+        <v>0.9782523488271947</v>
       </c>
       <c r="N21">
-        <v>1.039352537081266</v>
+        <v>0.9885391777942411</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03022080872731</v>
+        <v>0.9492610381658904</v>
       </c>
       <c r="D22">
-        <v>1.031653433505894</v>
+        <v>0.9638257194089792</v>
       </c>
       <c r="E22">
-        <v>1.029973926717891</v>
+        <v>0.9638669537551788</v>
       </c>
       <c r="F22">
-        <v>1.037076980418695</v>
+        <v>0.9559495067033577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033459175457147</v>
+        <v>1.028040062935514</v>
       </c>
       <c r="J22">
-        <v>1.03709403797858</v>
+        <v>0.9824018393775842</v>
       </c>
       <c r="K22">
-        <v>1.03537942946051</v>
+        <v>0.9801495490656903</v>
       </c>
       <c r="L22">
-        <v>1.033706486342302</v>
+        <v>0.9801898830719771</v>
       </c>
       <c r="M22">
-        <v>1.040781941783138</v>
+        <v>0.9724472084610584</v>
       </c>
       <c r="N22">
-        <v>1.038566830468859</v>
+        <v>0.9837969626725666</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030771090212987</v>
+        <v>0.952679623781178</v>
       </c>
       <c r="D23">
-        <v>1.032140954599057</v>
+        <v>0.9667219415282032</v>
       </c>
       <c r="E23">
-        <v>1.030446764262891</v>
+        <v>0.966664219744817</v>
       </c>
       <c r="F23">
-        <v>1.037667406100838</v>
+        <v>0.9594608964551529</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033579373988866</v>
+        <v>1.029012713788636</v>
       </c>
       <c r="J23">
-        <v>1.037510172398047</v>
+        <v>0.9849313133628561</v>
       </c>
       <c r="K23">
-        <v>1.035796467627348</v>
+        <v>0.982653904061453</v>
       </c>
       <c r="L23">
-        <v>1.034108761545693</v>
+        <v>0.9825974034959479</v>
       </c>
       <c r="M23">
-        <v>1.041301930586564</v>
+        <v>0.9755480111263083</v>
       </c>
       <c r="N23">
-        <v>1.038983555846933</v>
+        <v>0.986330028801032</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032933652609144</v>
+        <v>0.9655943214608085</v>
       </c>
       <c r="D24">
-        <v>1.034057342777025</v>
+        <v>0.9776866815695027</v>
       </c>
       <c r="E24">
-        <v>1.032305570912959</v>
+        <v>0.9772582484883524</v>
       </c>
       <c r="F24">
-        <v>1.039988316123679</v>
+        <v>0.9727364814322719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034047839088935</v>
+        <v>1.032661361448754</v>
       </c>
       <c r="J24">
-        <v>1.039143898034111</v>
+        <v>0.9944842853189378</v>
       </c>
       <c r="K24">
-        <v>1.037434197457168</v>
+        <v>0.9921173124172642</v>
       </c>
       <c r="L24">
-        <v>1.035688575493444</v>
+        <v>0.991696862415221</v>
       </c>
       <c r="M24">
-        <v>1.043344518426963</v>
+        <v>0.9872599106204549</v>
       </c>
       <c r="N24">
-        <v>1.040619601560791</v>
+        <v>0.9958965670730324</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035435535491759</v>
+        <v>0.9796002640779005</v>
       </c>
       <c r="D25">
-        <v>1.036275364529681</v>
+        <v>0.9896187924763833</v>
       </c>
       <c r="E25">
-        <v>1.034457227819428</v>
+        <v>0.9887939806411978</v>
       </c>
       <c r="F25">
-        <v>1.04267460937057</v>
+        <v>0.987153714054931</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03458171633203</v>
+        <v>1.036562536579824</v>
       </c>
       <c r="J25">
-        <v>1.041030535831557</v>
+        <v>1.004834219067759</v>
       </c>
       <c r="K25">
-        <v>1.039326400626716</v>
+        <v>1.002380429755031</v>
       </c>
       <c r="L25">
-        <v>1.037513983042459</v>
+        <v>1.001568782703523</v>
       </c>
       <c r="M25">
-        <v>1.045705689293819</v>
+        <v>0.999954780185116</v>
       </c>
       <c r="N25">
-        <v>1.042508918600309</v>
+        <v>1.006261198914932</v>
       </c>
     </row>
   </sheetData>
